--- a/Bug_report_CheckList.xlsx
+++ b/Bug_report_CheckList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEEF05FF-8997-4462-BE8F-49C2CE1458CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2851E21E-63F3-4905-BC8A-3A15A15B7214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{295F6403-4D3D-4112-9931-82F0F9397295}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="18900" windowHeight="11175" xr2:uid="{295F6403-4D3D-4112-9931-82F0F9397295}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -3215,16 +3215,16 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3699,7 +3699,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>4974248</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2842571</xdr:rowOff>
+      <xdr:rowOff>2842572</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4519,19 +4519,17 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="61.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="111.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="94.140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -4671,7 +4669,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="333" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4735,7 +4733,7 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -4750,7 +4748,7 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="14" t="s">
         <v>5</v>
       </c>
@@ -4781,7 +4779,7 @@
       <c r="B17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -4850,10 +4848,10 @@
       <c r="E21" s="9"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Bug_report_CheckList.xlsx
+++ b/Bug_report_CheckList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Test_ListBoxer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2851E21E-63F3-4905-BC8A-3A15A15B7214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36AAF04-E1DA-40EE-9690-922F3189B86A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="18900" windowHeight="11175" xr2:uid="{295F6403-4D3D-4112-9931-82F0F9397295}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{295F6403-4D3D-4112-9931-82F0F9397295}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -3011,7 +3011,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3068,6 +3068,15 @@
       <b/>
       <i/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3172,7 +3181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3193,9 +3202,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3225,6 +3231,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3247,15 +3259,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>179614</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>41763</xdr:rowOff>
+      <xdr:rowOff>68977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3598507</xdr:colOff>
+      <xdr:colOff>3720971</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2171700</xdr:rowOff>
+      <xdr:rowOff>2198914</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3284,7 +3296,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7286625" y="279888"/>
+          <a:off x="7867650" y="599656"/>
           <a:ext cx="3541357" cy="2129937"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3297,9 +3309,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>58351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -3328,8 +3340,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7229475" y="2571750"/>
-          <a:ext cx="6010275" cy="1840985"/>
+          <a:off x="7742464" y="2643708"/>
+          <a:ext cx="5819775" cy="1782634"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3429,9 +3441,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>291353</xdr:colOff>
+      <xdr:colOff>449036</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:rowOff>127723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -3460,8 +3472,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7788088" y="9200029"/>
-          <a:ext cx="4168589" cy="2487840"/>
+          <a:off x="8001000" y="9326152"/>
+          <a:ext cx="4010906" cy="2393734"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3473,15 +3485,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
+      <xdr:colOff>240498</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>46205</xdr:rowOff>
+      <xdr:rowOff>81644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3922059</xdr:colOff>
+      <xdr:colOff>3908451</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2310254</xdr:rowOff>
+      <xdr:rowOff>2242219</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3504,8 +3516,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7575176" y="14300087"/>
-          <a:ext cx="3843618" cy="2264049"/>
+          <a:off x="7792462" y="14750144"/>
+          <a:ext cx="3667953" cy="2160575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3517,13 +3529,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3978088</xdr:colOff>
+      <xdr:colOff>3995376</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4437530</xdr:colOff>
+      <xdr:colOff>4437529</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>2319617</xdr:rowOff>
     </xdr:to>
@@ -3547,8 +3559,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11474823" y="11732559"/>
-          <a:ext cx="459442" cy="2297205"/>
+          <a:off x="11683412" y="15063107"/>
+          <a:ext cx="442153" cy="2210760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3560,9 +3572,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4706470</xdr:colOff>
+      <xdr:colOff>4732695</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -3590,8 +3602,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12203205" y="11721352"/>
-          <a:ext cx="549089" cy="2319930"/>
+          <a:off x="12420731" y="15076714"/>
+          <a:ext cx="522864" cy="2218276"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3603,15 +3615,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>67237</xdr:colOff>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>33616</xdr:rowOff>
+      <xdr:rowOff>104788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5109883</xdr:colOff>
+      <xdr:colOff>5069060</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3057195</xdr:rowOff>
+      <xdr:rowOff>3029981</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3634,8 +3646,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7563972" y="16999322"/>
-          <a:ext cx="5042646" cy="3023579"/>
+          <a:off x="7742463" y="17113717"/>
+          <a:ext cx="4878561" cy="2925193"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3647,15 +3659,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>224116</xdr:colOff>
+      <xdr:colOff>251331</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>67237</xdr:rowOff>
+      <xdr:rowOff>176094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5957544</xdr:colOff>
+      <xdr:colOff>6513959</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3518647</xdr:rowOff>
+      <xdr:rowOff>3946072</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3678,8 +3690,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7720851" y="20226619"/>
-          <a:ext cx="5733428" cy="3451410"/>
+          <a:off x="7803295" y="20382701"/>
+          <a:ext cx="6262628" cy="3769978"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3691,9 +3703,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>145677</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2510116</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>49040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -3722,8 +3734,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7642412" y="11676528"/>
-          <a:ext cx="4828571" cy="2876190"/>
+          <a:off x="7973786" y="12077754"/>
+          <a:ext cx="4688498" cy="2793532"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3779,9 +3791,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>136072</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>80615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -3810,8 +3822,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7496735" y="26748441"/>
-          <a:ext cx="4403912" cy="2609077"/>
+          <a:off x="7688036" y="27131615"/>
+          <a:ext cx="4267840" cy="2528462"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3869,13 +3881,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>392205</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>291353</xdr:rowOff>
+      <xdr:rowOff>291352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3823534</xdr:colOff>
+      <xdr:colOff>4054929</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>2342029</xdr:rowOff>
+      <xdr:rowOff>2480317</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3898,8 +3910,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7888940" y="29650765"/>
-          <a:ext cx="3431329" cy="2050676"/>
+          <a:off x="7944169" y="29954923"/>
+          <a:ext cx="3662724" cy="2188965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4132,13 +4144,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>35862</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>493060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2689414</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>2151530</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4176,13 +4188,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2767854</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>7216430</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>2162736</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4516,36 +4528,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3E1CFC-F2D0-47BF-A27D-424585D20077}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="61.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="111.5703125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4553,10 +4565,10 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -4568,290 +4580,275 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="183.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="183.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="230.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="183.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="251.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="333" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="205.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="205.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" ht="205.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" ht="205.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="205.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="205.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="205.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="205.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" ht="205.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="205.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" ht="205.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>44</v>
       </c>
     </row>
